--- a/biology/Zoologie/Dinosaur_King/Dinosaur_King.xlsx
+++ b/biology/Zoologie/Dinosaur_King/Dinosaur_King.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dinosaur King (古代王者恐竜キング, Kodai Ōja Kyōryū Kingu?) est un dessin animé en 79 épisodes de 22 minutes créé par Katsuyoshi Yatabe et diffusé du 4 février 2007 au 31 août 2008 sur TV Asahi.
-En France, elle a été diffusée à partir du 27 août 2008 sur France 3 dans Toowam[1] et sur Canal J.
+En France, elle a été diffusée à partir du 27 août 2008 sur France 3 dans Toowam et sur Canal J.
 </t>
         </is>
       </c>
@@ -513,12 +525,49 @@
           <t>Série télévisée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans la saison 1, au Japon, Max, Rex et Zoé trouvent, à l'emplacement d'une chute de météorite, trois pierres, chacune marquée d'un élément précis (éclair, vent et herbe), ainsi qu'un étrange conteneur en forme d'œuf dans lequel se trouve une carte représentant un tricératops. En passant la carte dans la pierre éclair, Max la change en un Triceratops vivant, qui apparaît d'abord adulte, puis sous sa forme de bébé dinosaure. Max s'attache au dinosaure, qu'il baptise Chomp, et, en usant des pierres, Reese, la sœur de Zoé, crée des appareils, les Dinopods, des appareils qui permettent d'utiliser plus facilement les pierres et permettant en plus de rester en contact avec le Labo-D. Mais, peu après, Max et Chomp survivent de justesse à une confrontation avec un Tyrannosaurus utilisé par le Gang Alpha, un étrange groupe ayant tenté de s'emparer de Chomp. Les héros comprennent vite qu'il y a en réalité plusieurs cartes de dinosaures similaires partout dans le monde, susceptibles de s'activer à n'importe quel moment, et que le Gang Alpha cherche à toutes les récupérer dans leur intérêt. Après que Rex et Zoé ont obtenu leurs propres dinosaures, respectivement un Carnotaurus nommé Ace et une Parasaurolophus nommée Paris, une compétition pour obtenir les cartes débute entre le Gang Alpha et la D-Team.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la saison 1, au Japon, Max, Rex et Zoé trouvent, à l'emplacement d'une chute de météorite, trois pierres, chacune marquée d'un élément précis (éclair, vent et herbe), ainsi qu'un étrange conteneur en forme d'œuf dans lequel se trouve une carte représentant un tricératops. En passant la carte dans la pierre éclair, Max la change en un Triceratops vivant, qui apparaît d'abord adulte, puis sous sa forme de bébé dinosaure. Max s'attache au dinosaure, qu'il baptise Chomp, et, en usant des pierres, Reese, la sœur de Zoé, crée des appareils, les Dinopods, des appareils qui permettent d'utiliser plus facilement les pierres et permettant en plus de rester en contact avec le Labo-D. Mais, peu après, Max et Chomp survivent de justesse à une confrontation avec un Tyrannosaurus utilisé par le Gang Alpha, un étrange groupe ayant tenté de s'emparer de Chomp. Les héros comprennent vite qu'il y a en réalité plusieurs cartes de dinosaures similaires partout dans le monde, susceptibles de s'activer à n'importe quel moment, et que le Gang Alpha cherche à toutes les récupérer dans leur intérêt. Après que Rex et Zoé ont obtenu leurs propres dinosaures, respectivement un Carnotaurus nommé Ace et une Parasaurolophus nommée Paris, une compétition pour obtenir les cartes débute entre le Gang Alpha et la D-Team.
 Dans la saison 2, les parents de Max, Zoé et Rex ont été enlevés par de nouveaux ennemis : les Pirates de l'Espace. Avec l'aide de leurs anciens ennemies : Le Gang Alpha, ils vont voyager dans le temps pour sauver leurs parents et pour empêcher les Pirates de l'Espace de réunir les pierres du Cosmos.
-Voix françaises
-Cécile Florin : Max
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cécile Florin : Max
 Julie Basecqz : Zoé
 Christophe Hespel : Rex
 Jennifer Baré : Ursula
@@ -529,10 +578,43 @@
 Raphaël Anciaux : Voix diverses
 Catherine Conet : Helga, Reese
 Bruno Mullenaerts, Mathieu Moreau puis Pierre Lognay : Seth
-Lionel Bourguet : Voix diverses
-Épisodes
-Première saison (2007-2008)
-Aventures préhistoriques (Tricératops et Tyrannosaure)
+Lionel Bourguet : Voix diverses</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Première saison (2007-2008)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aventures préhistoriques (Tricératops et Tyrannosaure)
 Du haut de ces Pyramides! (Carnotaurus, Parasaurolophus et Spinosaure)
 Panique au Musée (Saichania)
 Livré dans la jungle (Saltasaure)
@@ -580,9 +662,43 @@
 Révélations
 Un traître démasqué (Tyrannosaure Noir)
 Le vrai visage de Seth
-La guerre des dinosaures
-Deuxième saison (2007-2008)
-Retour vers le passé (Torvosaure)
+La guerre des dinosaures</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2007-2008)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retour vers le passé (Torvosaure)
 Vacances romaines
 Recherche Spartacus désespérément (Majungasaure et Shunosaure)
 Dans l'arène
@@ -613,8 +729,43 @@
 La Guerre pour les Pierres
 Le Destin de l'Univers
 sources : sur le site de Dinosaur King.
-Personnages
-D-Team
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D-Team
 Les membres de la D-Team sont les personnages principaux de la série et ils sont très bien informés sur les dinosaures. Dans la première saison, ils empêchent le Gang Alpha d'atteindre leur objectif et à la fin de la saison, ils ont vaincu Seth avec l'aide de leur ancien ennemi le Gang Alpha. Dans la seconde saison ils ont vaincu Les Pirates de l'Espace pour les empêcher d'atteindre leur objectif. La base de La D-Team est le Labo-D et c'est de là que la D-Team se téléporte aux endroits où apparaissent les dinosaures dans le monde entier dans la saison 1. Ses membres sont les suivants :
 Max Taylor : Max Taylor est un jeune garçon de 12 ans, fan des dinosaures depuis tout petit qui déteste la façon dont le Gang Alpha les utilise et il est le fils du Docteur Spike Taylor, un paléontologue. Max est compétitif, parfois tête brûlée et dégage une telle énergie et une telle joie de vivre que parfois, ça lui cause quelques petits problèmes. Il est amoureux de Zoé. C'est lui le leader du groupe des trois héros : la D-Team. Son partenaire est un tricératops mâle nommé Chomp, doté de l'élément éclair. Son nom complet (qu'il déteste) est Maximus. La principale différence avec le personnage du jeu est le pansement sur le nez, uniquement présent dans l'épisode 1 de la série. Il est nommé Ryuta Kodai (古代 リュウタ, Kodai Ryūta?) dans la version originale japonaise.
 Zoé Drake : Zoé a 12 ans, est une vieille amie de Max et la petite sœur de Reese qui travaille avec le Docteur Taylor. Elle est fashion victim, parfois excessivement fan de certaines stars de cinéma, de télévision ou de sport. Simple personnage secondaire dans le jeu DS, elle est ici élevée au rang de personnage principal avec des habits différents. Son dinosaure est un parasaurolophus femelle nommée Paris, dotée de l'élément herbe. Elle est nommée Malm Tatsuno (竜野 マルム, Tatsuno Marumu?) dans la version originale japonaise.
@@ -649,16 +800,90 @@
 Seth : Il a été secouru par les Pirates de l'Espace. Puis il s'est allié à eux sous le pseudonyme du "Quatrième Homme". Seth cherche en fait les pierres du cosmos pour voyager dans le temps à son propre compte, et ainsi se faufile dans le vaisseau de la D-Team pour récupérer les redoutable artefacts. Il attaque finalement les Pirates de l'Espace avec son Cryolophosaurus. Après une bataille avec la D-Team, il parvient à obtenir les Pierres du Cosmos avant que les Pirates de l'Espace ne les récupèrent encore une fois. Puis les Pierres du Cosmos forment un Ptérosaure Noir. Seth a fini inconscient en enfonçant le vaisseau dans le Ptérosaure en cherchant à le détruire après avoir découvert ses fautes. Son corps comateux est reconduit dans l'avenir (en 2126) avec Rex, ses parents, Jonathan et le Gang Alpha.
 Goma : Il est le fils du Spektre et apparaît uniquement dans le jeu vidéo d'arcade, il fut d'abord un membre des Pirates de l'Espace, mais il est maintenant le chef du Royaume de l'Ombre. Après avoir appris que la D-Team ait vaincue son père et ses trois sbires, il viendra lui-même défier la D-Team. Il utilise un Eocarcharia comme dinosaure modifié personnel qui possède l'élément Feu. Il est nommé Goma (ゴーマ?) dans la version originale japonaise.
 source pour Goma et son Eocarcharia: fandom anglais de Dinosaur King.
-Les Familles
-Aki Taylor: Aki est la mère de Max et elle est mariée à Spike Taylor. C'est une femme au foyer, qui plus jeune faisait du théâtre. Elle croit que les dinosaures sont des chiens, jusqu'à un certain point de la série. Elle est nommée Aki Kodai (古代 亜紀, Kodai Aki?) dans la version originale japonaise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les Familles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aki Taylor: Aki est la mère de Max et elle est mariée à Spike Taylor. C'est une femme au foyer, qui plus jeune faisait du théâtre. Elle croit que les dinosaures sont des chiens, jusqu'à un certain point de la série. Elle est nommée Aki Kodai (古代 亜紀, Kodai Aki?) dans la version originale japonaise.
 Dr Foster Owen : Dr Owen est le collègue du Dr Taylor. C'est le père adoptif de Rex. Un soir dans son musée, il trouva au pied d'un squelette de dinosaure Rex bébé et décida de l'adopter. Il envoie Rex vivre avec la famille Taylor pour qu'il ait un environnement plus familial, le temps de chercher une femme pour qu'il ait une mère. Il tombera amoureux de Ursula. Il lui demandera même de l'épouser dans la saison 1, mais celle-ci appartenant au gang Alpha et Rex, Max et Zoé étant ses ennemis, elle refusera.
 Patrick : Patrick est l'assistant du Dr Owen, il voyage souvent avec lui et a de l'expérience en lasso.
 Dr Drake et Mme Drake : Ce sont les parents de Zoé et Reese. Le Dr Drake est un vétérinaire qui se promène souvent avec une énorme seringue (conçue pour les éléphants), sa femme Mme Drake aime bien promener leur chien, autruche et cochon tous les matins.
 Professeurs Ancien &amp; Crétacia  : Les parents biologiques de Rex. Le professeur Crétacia a accouché de Rex pendant qu'ils étaient dans le passé à l'ère des dinosaures. À cause de Seth et du Dr Z qui les ont jetés du vaisseau après l'accouchement du professeur Crétacia lorsqu'ils revinrent dans le futur, ils atterrirent dans un autre temps que Rex. Ce sont tous les deux des paléontologues, qui ont découvert un moyen de transformer les dinosaures en cartes. Ils reviennent à la fin de la saison 1 pour ramener Rex et toutes les cartes avec eux.
 Jonathan : Jonathan apparaît dans le monde entier, sous différentes formes (pilote d'un avion, vendeur de cartes, le guide touristique de Bali, peintre, maitre ninja, un célèbre chef cuisinier et un chef de train), habituellement à l'endroit où les dinosaures sont découverts et utilisant comme déguisement sa tête mise à l'envers (ses cheveux deviennent sa barbe). Il est finalement révélé être un robot, comme Helga, construit par le professeur Ancien. C'est leur majordome.
 source : sur le site de Dinosaur King.
-Dinosaures et aptitudes
-En 2126, les professeurs Ancien et Crétacia ont découvert les pierres élémentaires, qui leur ont délivré un message des dinosaures les suppliant de les aider. Une fois à l'époque du Mésozoïque, les savants ont utilisé un système très perfectionné pour transformer les dinosaures en cartes pour les ramener au XXIIe siècle. Le Docteur Z a créé en parallèle les cartes d'aptitudes pour organiser des combats de dinosaures. Chaque dinosaure a une carte d'aptitude « personnelle » mais ils peuvent utiliser celles des autres ou des « artificielles » créées sans utilisateurs précis, pourvu qu'elles soient du même type que celui du dinosaure. Certains dinosaures sont eux-mêmes des cartes d'aptitudes, c'est-à-dire qu'ils ne peuvent être appelés seul, très puissantes, d'autres sont plusieurs dans une même carte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dinosaures et aptitudes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2126, les professeurs Ancien et Crétacia ont découvert les pierres élémentaires, qui leur ont délivré un message des dinosaures les suppliant de les aider. Une fois à l'époque du Mésozoïque, les savants ont utilisé un système très perfectionné pour transformer les dinosaures en cartes pour les ramener au XXIIe siècle. Le Docteur Z a créé en parallèle les cartes d'aptitudes pour organiser des combats de dinosaures. Chaque dinosaure a une carte d'aptitude « personnelle » mais ils peuvent utiliser celles des autres ou des « artificielles » créées sans utilisateurs précis, pourvu qu'elles soient du même type que celui du dinosaure. Certains dinosaures sont eux-mêmes des cartes d'aptitudes, c'est-à-dire qu'ils ne peuvent être appelés seul, très puissantes, d'autres sont plusieurs dans une même carte.
 Les Dinosaures Éclair sont tous des représentants du groupe des cératopsidés. Dans la série apparaissent :
 Chomp le Triceratops (Charge électrique/Lance éclair/Coup de foudre/Bazooka Tonnerre/Ancre plasma/Tonnerre ultime/Etincelle de Catling/Vrille du tonnerre/Tonnerre Suprême)
 Styracosaure (Lance éclair)
@@ -705,35 +930,72 @@
 Tyrannosaure Noir (Océan de feu)
 Gigas le Tyrannosaure (Explosion de magma/Lanceur spectral)
 Les Dinosaures Eau sont des représentants de divers groupes, comprenant les spinosauridé et les sauropodes. Dans la série apparaissent:
-Spiny le Spinosaure (Onde de choc/Broyage caudale/Canon de Futab</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Spiny le Spinosaure (Onde de choc/Broyage caudale/Canon de Futabasaure/Épée d'Eau/Ultime attaque aqua/Piquet d'Anhanguera/Lame Aqua)
+Saltasaure (aucune)
+Suchomimus (aucune)
+Amargasaure (aucune)
+Futabasaure (il est lui-même la carte d'aptitude Canon de Futabasaure utilisée par Spiny)
+Baryonyx (Fouet Aqua)
+Ampelosaure (Vortex Aqua)
+Shunosaure (Vortex Aqua)
+Jobaria (Onde de choc/Panique océan)
+Ophtalmosaure (Il forme la carte d'aptitude Panique Océan utilisée par le Jobaria)
+Isisaure (Lame Aqua)
+Les Dinosaures Terre sont tous des représentants du sous-ordre des thyreophores. Dans la série apparaissent : 
+Tank le Saichania (Contre-Attaque/Dino tourbillon/Barrière de la Terre/Tremblement de Terre/Terre ultime/Sabre sismique/Piquet de Tupuxuara/Flèches Pointues)
+Ankylosaure (Taupe attaque)
+Euoplocephalus (Sabre sismique)
+Stegosaure (Flèches pointues)
+Edmontonia (Catapulte)
+Tuojiangosaure (Sabre sismique)
+Lexovisaurus  (Piège de sable)
+Armatus le Stégosaure (Piquant spectral)
+Les Dinosaures Aide sont des cartes d'aptitude sans type particulier (des dinosaures comme le Seismosaurus ou le Futabasaurus ne sont pas compris dans cette catégorie car ils ont un type), symbolisé d'un point d'exclamation (dans la série il n'y a aucun symbole), qui envoie le dinosaure sur le terrain pour un coup surpuissant ou un bouclier inviolable tant que leur équipier est debout. Certaines aptitudes, comme « Broyage caudale », sont également de ce type, permettant à n'importe quel dinosaure de les utilisées. Dans la série apparaissent :
+Pawpawsaurus (Équipe d'étiquette)
+Velociraptor (Parade spéciale/Furie finale)
+Piatnitzkysaure  (Dents venimeuses)
+Anhanguera (Piquet d'Anhanguera)
+Tupuxuara (Piquet de Tupuxuara)
+Les Dinosaures à Élément Secret sont des dinosaures modifiés pour être surpuissants, symbolisés par un point d'interrogation (des rayons solaires dans la série) bien que l'on peut donner un type inédit ou pas à certains, tel le Tyrannosaure Noir que l'on peut classer en « feu ».
+Dans la série apparaissent :
+Pachycephalosaure (Rayon laser)
+Therizinosaurus (Lames griffes/Griffes giratoires)
+Deinonychus (Coup de queue/Attaque en vrille/Attaque croisée/Pluie galactique)
+Megalosaure (Lancer en apesanteur/Chute gigantesque)
+Brontikens l'Apatosaure (Destruction spectrale)
+Cryolophosaure (Cristaux de neige/Frappe Blizzard)
+source : http://dinosaurking57.skyrock.com
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Jeux vidéo d'arcade</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dessin animé est basé sur la série de jeux vidéo d'arcade Dinosaur King dont le premier jeu est sortie en 2005 et développé et édité par Sega. Le joueur incarne Max qui grâce aux pierres élémentaires, remonte le temps avec son ami Rex pour empêcher le Gang Alpha de capturer les dinosaures et de les utiliser pour conquérir le monde. Le système de combat est celui du pierre/papier/ciseaux, permettant de choisir à chaque tour qui attaque et fait ainsi perdre des points de vie au dinosaure adverse, jusqu'à ce qu'il ne puisse plus se battre. Le jeu utilise un système de cartes avec un code à barres qui sera lue par le lecteur de la machine et invoquera le dinosaure de la carte dans le jeu lui permettant aussi d'utiliser des cartes d'aptitude. Il est possible de faire des combats entre deux joueurs. 3 autres jeux vidéo d'arcade sortiront jusqu'en 2008.
 source : fandom anglais de Dinosaur King.
@@ -741,88 +1003,94 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Jeu de cartes à collectionner</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Jeu vidéo sur DS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le jeu vidéo sur DS, le joueur incarne au choix un des deux personnages principaux (Max Taylor et Rex Owen/Ancien), et commence avec un dinosaure précis (respectivement un Triceratops s'il choisit Max et un Carnotaurus s'il choisit Rex Owen/Ancien). Il suit ensuite plusieurs quêtes durant lesquelles il doit affronter différents membres du Gang Alpha usant eux aussi des dinosaures, déterrer et restaurer des fossiles, gagner de nouvelles aptitudes au cours des combats, tout cela dans un système assez proche de Pokémon. À cette fin, il visite les différents continents (basés sur ceux du monde réel), et trouve les fossiles de chaque dinosaure sur le continent où ils ont été trouvés dans la réalité. Les combats sont basés sur le système du jeu vidéo d'arcade : un système de pierre/papier/ciseaux.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Manga</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a aussi une adaptation en manga par Yohei Sakai (auteur de Toyuki).
 Il est édité par Shōgakukan et pré-publié dans le magazine Coro Coro Dragon au Japon.
@@ -831,31 +1099,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaur_King</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Neuvelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Et serie televisee produit par Cinar et EM.TV &amp; Merchadising AG diffusee en 1985 sur CBC.
 En France serie diffusee en 1987 sur TF1
